--- a/ENERGY/EEX.xlsx
+++ b/ENERGY/EEX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_mine_models\ENERGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD6036-2D4E-4568-A101-4787D41327A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC5350-AC69-4F4E-A9C2-43CF63F13422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" xr2:uid="{47340B90-4908-4572-9E94-29EB95954420}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{47340B90-4908-4572-9E94-29EB95954420}"/>
   </bookViews>
   <sheets>
     <sheet name="SLO praticipants" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +461,7 @@
   <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,11 +550,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
